--- a/DokkanKits/13.xlsx
+++ b/DokkanKits/13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BDF4F-D462-4C96-9976-1C48DFA72DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9E662-C793-43DB-8812-E2493045143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="210" windowWidth="15000" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="638" windowWidth="11414" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
